--- a/Tables/PAIR_ADONIS_PCO_den_bioreg.xlsx
+++ b/Tables/PAIR_ADONIS_PCO_den_bioreg.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>pairs</t>
   </si>
@@ -74,7 +74,10 @@
     <t>Oeste Fria vs Norte</t>
   </si>
   <si>
-    <t/>
+    <t>**</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -163,19 +166,19 @@
         <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.44532897172551894</v>
+        <v>2.166984222503732</v>
       </c>
       <c r="E2" t="n">
-        <v>3.102250407159167</v>
+        <v>9.527549690324223</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03194828538114338</v>
+        <v>0.09202912383054959</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01</v>
+        <v>1.0E-4</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06</v>
+        <v>6.000000000000001E-4</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -192,19 +195,19 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3208395582600425</v>
+        <v>3.358788406993761</v>
       </c>
       <c r="E3" t="n">
-        <v>2.6047565037412572</v>
+        <v>15.036291887234292</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05589035753318778</v>
+        <v>0.2546957372586211</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0261</v>
+        <v>1.0E-4</v>
       </c>
       <c r="H3" t="n">
-        <v>0.15660000000000002</v>
+        <v>6.000000000000001E-4</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
@@ -221,19 +224,19 @@
         <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2566805858173672</v>
+        <v>1.896929866649466</v>
       </c>
       <c r="E4" t="n">
-        <v>1.6564993403028327</v>
+        <v>10.102234669086721</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04921781447184602</v>
+        <v>0.23994533184492028</v>
       </c>
       <c r="G4" t="n">
-        <v>0.131</v>
+        <v>1.0E-4</v>
       </c>
       <c r="H4" t="n">
-        <v>0.786</v>
+        <v>6.000000000000001E-4</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -250,19 +253,19 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27134502321345916</v>
+        <v>2.437830186568415</v>
       </c>
       <c r="E5" t="n">
-        <v>2.1350102636677737</v>
+        <v>11.440913642772001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.018706006673461565</v>
+        <v>0.09268331953440556</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0587</v>
+        <v>1.0E-4</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3522</v>
+        <v>6.000000000000001E-4</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
@@ -279,22 +282,22 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14763433484314042</v>
+        <v>0.7693646485375497</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0718907610275568</v>
+        <v>3.838179195521353</v>
       </c>
       <c r="F6" t="n">
-        <v>0.010605231117738903</v>
+        <v>0.03696308260851031</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3728</v>
+        <v>0.002</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>0.012</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -308,19 +311,19 @@
         <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08979500408614663</v>
+        <v>2.72331607196683</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7877842856017199</v>
+        <v>16.030878241766516</v>
       </c>
       <c r="F7" t="n">
-        <v>0.015511294628875074</v>
+        <v>0.24277851012477528</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5633</v>
+        <v>1.0E-4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>6.000000000000001E-4</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>

--- a/Tables/PAIR_ADONIS_PCO_den_bioreg.xlsx
+++ b/Tables/PAIR_ADONIS_PCO_den_bioreg.xlsx
@@ -425,13 +425,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.16698422250373</v>
+        <v>1.69225069466188</v>
       </c>
       <c r="D2" t="n">
-        <v>9.52754969032422</v>
+        <v>10.0966868703377</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0920291238305496</v>
+        <v>0.0969933546772152</v>
       </c>
       <c r="F2" t="n">
         <v>0.0001</v>
@@ -451,13 +451,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.35878840699376</v>
+        <v>2.69500226854229</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0362918872343</v>
+        <v>19.1264517407852</v>
       </c>
       <c r="E3" t="n">
-        <v>0.254695737258621</v>
+        <v>0.302986326862212</v>
       </c>
       <c r="F3" t="n">
         <v>0.0001</v>
@@ -477,13 +477,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.89692986664947</v>
+        <v>1.44306057544509</v>
       </c>
       <c r="D4" t="n">
-        <v>10.1022346690867</v>
+        <v>10.0970941454359</v>
       </c>
       <c r="E4" t="n">
-        <v>0.23994533184492</v>
+        <v>0.239852520712065</v>
       </c>
       <c r="F4" t="n">
         <v>0.0001</v>
@@ -503,13 +503,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2.43783018656841</v>
+        <v>1.94050973213217</v>
       </c>
       <c r="D5" t="n">
-        <v>11.440913642772</v>
+        <v>13.3279090222345</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0926833195344056</v>
+        <v>0.106344302128826</v>
       </c>
       <c r="F5" t="n">
         <v>0.0001</v>
@@ -529,19 +529,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.76936464853755</v>
+        <v>0.564853880819194</v>
       </c>
       <c r="D6" t="n">
-        <v>3.83817919552135</v>
+        <v>3.84764516101637</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0369630826085103</v>
+        <v>0.0370508657663885</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0015</v>
+        <v>0.0016</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009</v>
+        <v>0.0096</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -555,13 +555,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.72331607196683</v>
+        <v>2.11109306201665</v>
       </c>
       <c r="D7" t="n">
-        <v>16.0308782417665</v>
+        <v>20.5941144479453</v>
       </c>
       <c r="E7" t="n">
-        <v>0.242778510124775</v>
+        <v>0.291725657429005</v>
       </c>
       <c r="F7" t="n">
         <v>0.0001</v>
